--- a/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
+++ b/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sira/tests/models/potable_water_treatment_plant_A/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C3CD5-624C-F94D-96FC-BD802537AECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C9DE7-2740-9541-AFF9-1819915C49E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="1" r:id="rId1"/>
@@ -1213,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1516,9 +1516,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1984,228 +1981,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEAF563-7B57-7A4C-BC73-9E3B811C77CF}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="106" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="106" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="106"/>
+    <col min="1" max="1" width="39.6640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="105" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" style="105" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="109"/>
-    </row>
-    <row r="3" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="C2" s="108"/>
+    </row>
+    <row r="3" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="109"/>
-    </row>
-    <row r="4" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
+      <c r="C3" s="108"/>
+    </row>
+    <row r="4" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="109"/>
-    </row>
-    <row r="5" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="C4" s="108"/>
+    </row>
+    <row r="5" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="109"/>
-    </row>
-    <row r="6" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111" t="s">
+      <c r="C5" s="108"/>
+    </row>
+    <row r="6" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="109"/>
-    </row>
-    <row r="7" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="C6" s="108"/>
+    </row>
+    <row r="7" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="109"/>
-    </row>
-    <row r="8" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111" t="s">
+      <c r="C7" s="108"/>
+    </row>
+    <row r="8" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="110" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="109"/>
-    </row>
-    <row r="9" spans="1:3" s="110" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="111" t="s">
+      <c r="C8" s="108"/>
+    </row>
+    <row r="9" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="108"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{1B0855A9-7ED1-FE41-94CF-9DBF7BAF2422}">
       <formula1>INFRASTRUCTURE_LEVEL</formula1>
     </dataValidation>
@@ -2445,7 +2442,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2507,14 +2504,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2535,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9367EF-BD79-A044-89F7-C4AD289DA10D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
+++ b/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sira/tests/models/potable_water_treatment_plant_A/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C9DE7-2740-9541-AFF9-1819915C49E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089AB881-48AD-F442-8999-9C29B4955513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="6" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="1" r:id="rId1"/>
@@ -508,12 +508,6 @@
     <t>recovery_function</t>
   </si>
   <si>
-    <t>recovery_mean</t>
-  </si>
-  <si>
-    <t>recovery_std</t>
-  </si>
-  <si>
     <t>recovery_95percentile</t>
   </si>
   <si>
@@ -809,6 +803,12 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>recovery_param1</t>
+  </si>
+  <si>
+    <t>recovery_param2</t>
   </si>
 </sst>
 </file>
@@ -1995,21 +1995,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="104" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="108"/>
     </row>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="4" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="110" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>43</v>
@@ -2033,16 +2033,16 @@
     </row>
     <row r="5" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="108"/>
     </row>
     <row r="6" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="110" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>42</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="8" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="108"/>
     </row>
     <row r="9" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="108"/>
     </row>
@@ -2454,73 +2454,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
         <v>230</v>
-      </c>
-      <c r="B3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
         <v>233</v>
-      </c>
-      <c r="B4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
         <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9367EF-BD79-A044-89F7-C4AD289DA10D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2551,31 +2551,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="F1" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="G1" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="H1" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="I1" s="92" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,25 +2586,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="96">
         <v>0.02</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="98">
         <v>1</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2615,25 +2615,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="96">
         <v>0.04</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="98">
         <v>1</v>
       </c>
       <c r="H3" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2644,25 +2644,25 @@
         <v>27</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" s="96">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="98">
         <v>1</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,25 +2673,25 @@
         <v>27</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" s="96">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="98">
         <v>1</v>
       </c>
       <c r="H5" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2702,25 +2702,25 @@
         <v>25</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="98">
         <v>1</v>
       </c>
       <c r="H6" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,25 +2731,25 @@
         <v>28</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G7" s="98">
         <v>1</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2760,25 +2760,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" s="98">
         <v>1</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,25 +2789,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D9" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="98">
         <v>1</v>
       </c>
       <c r="H9" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2818,25 +2818,25 @@
         <v>28</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G10" s="98">
         <v>1</v>
       </c>
       <c r="H10" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" s="98">
         <v>1</v>
       </c>
       <c r="H11" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I11" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,25 +2876,25 @@
         <v>28</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G12" s="98">
         <v>1</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,25 +2905,25 @@
         <v>28</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G13" s="98">
         <v>1</v>
       </c>
       <c r="H13" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I13" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2934,25 +2934,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G14" s="98">
         <v>1</v>
       </c>
       <c r="H14" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,25 +2963,25 @@
         <v>28</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D15" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G15" s="98">
         <v>1</v>
       </c>
       <c r="H15" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I15" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2992,25 +2992,25 @@
         <v>28</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="98">
         <v>1</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,25 +3021,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17" s="98">
         <v>1</v>
       </c>
       <c r="H17" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I17" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3050,25 +3050,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G18" s="98">
         <v>1</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I18" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3079,25 +3079,25 @@
         <v>22</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="98">
         <v>1</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,25 +3108,25 @@
         <v>22</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G20" s="98">
         <v>1</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3137,25 +3137,25 @@
         <v>22</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G21" s="98">
         <v>1</v>
       </c>
       <c r="H21" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,25 +3166,25 @@
         <v>22</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D22" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G22" s="98">
         <v>1</v>
       </c>
       <c r="H22" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I22" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,25 +3195,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="98">
         <v>1</v>
       </c>
       <c r="H23" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I23" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3224,25 +3224,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G24" s="98">
         <v>1</v>
       </c>
       <c r="H24" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I24" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,25 +3253,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G25" s="98">
         <v>1</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I25" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3282,25 +3282,25 @@
         <v>13</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="96">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G26" s="98">
         <v>1</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,25 +3311,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G27" s="98">
         <v>1</v>
       </c>
       <c r="H27" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I27" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3340,25 +3340,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D28" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G28" s="98">
         <v>1</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I28" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3369,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G29" s="98">
         <v>1</v>
       </c>
       <c r="H29" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I29" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3398,25 +3398,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D30" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G30" s="98">
         <v>1</v>
       </c>
       <c r="H30" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I30" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3427,25 +3427,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D31" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G31" s="98">
         <v>1</v>
       </c>
       <c r="H31" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I31" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3456,25 +3456,25 @@
         <v>3</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D32" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G32" s="98">
         <v>1</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3485,25 +3485,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G33" s="98">
         <v>1</v>
       </c>
       <c r="H33" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I33" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,25 +3514,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D34" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G34" s="98">
         <v>1</v>
       </c>
       <c r="H34" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I34" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3543,25 +3543,25 @@
         <v>29</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D35" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G35" s="98">
         <v>1</v>
       </c>
       <c r="H35" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I35" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G36" s="98">
         <v>1</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3601,25 +3601,25 @@
         <v>28</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D37" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G37" s="98">
         <v>1</v>
       </c>
       <c r="H37" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I37" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3630,25 +3630,25 @@
         <v>5</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E38" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G38" s="98">
         <v>1</v>
       </c>
       <c r="H38" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I38" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3659,25 +3659,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D39" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G39" s="98">
         <v>1</v>
       </c>
       <c r="H39" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I39" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,25 +3688,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D40" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G40" s="98">
         <v>1</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3717,25 +3717,25 @@
         <v>29</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D41" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G41" s="98">
         <v>1</v>
       </c>
       <c r="H41" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I41" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3746,25 +3746,25 @@
         <v>28</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D42" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G42" s="98">
         <v>1</v>
       </c>
       <c r="H42" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I42" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3775,25 +3775,25 @@
         <v>28</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D43" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G43" s="98">
         <v>1</v>
       </c>
       <c r="H43" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I43" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3804,25 +3804,25 @@
         <v>28</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D44" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G44" s="98">
         <v>1</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3833,25 +3833,25 @@
         <v>28</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D45" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G45" s="98">
         <v>1</v>
       </c>
       <c r="H45" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I45" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3862,25 +3862,25 @@
         <v>28</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D46" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E46" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G46" s="98">
         <v>1</v>
       </c>
       <c r="H46" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I46" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,25 +3891,25 @@
         <v>28</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D47" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G47" s="98">
         <v>1</v>
       </c>
       <c r="H47" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I47" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,25 +3920,25 @@
         <v>28</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D48" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E48" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G48" s="98">
         <v>1</v>
       </c>
       <c r="H48" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3949,25 +3949,25 @@
         <v>28</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D49" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G49" s="98">
         <v>1</v>
       </c>
       <c r="H49" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I49" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,25 +3978,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D50" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G50" s="98">
         <v>1</v>
       </c>
       <c r="H50" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I50" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4007,25 +4007,25 @@
         <v>3</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D51" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G51" s="98">
         <v>1</v>
       </c>
       <c r="H51" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I51" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4036,25 +4036,25 @@
         <v>3</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D52" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52" s="98">
         <v>1</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4065,25 +4065,25 @@
         <v>3</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D53" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G53" s="98">
         <v>1</v>
       </c>
       <c r="H53" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I53" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4094,25 +4094,25 @@
         <v>3</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D54" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G54" s="98">
         <v>1</v>
       </c>
       <c r="H54" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I54" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4123,25 +4123,25 @@
         <v>3</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D55" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E55" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G55" s="98">
         <v>1</v>
       </c>
       <c r="H55" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I55" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4152,25 +4152,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D56" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G56" s="98">
         <v>1</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I56" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4181,25 +4181,25 @@
         <v>3</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D57" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G57" s="98">
         <v>1</v>
       </c>
       <c r="H57" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I57" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4210,25 +4210,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D58" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G58" s="98">
         <v>1</v>
       </c>
       <c r="H58" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I58" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,25 +4239,25 @@
         <v>28</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D59" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G59" s="98">
         <v>1</v>
       </c>
       <c r="H59" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I59" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4268,25 +4268,25 @@
         <v>5</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D60" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G60" s="98">
         <v>1</v>
       </c>
       <c r="H60" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I60" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,25 +4297,25 @@
         <v>5</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D61" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E61" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G61" s="98">
         <v>1</v>
       </c>
       <c r="H61" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I61" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4326,25 +4326,25 @@
         <v>3</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D62" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G62" s="98">
         <v>1</v>
       </c>
       <c r="H62" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I62" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D63" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G63" s="98">
         <v>1</v>
       </c>
       <c r="H63" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I63" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4384,25 +4384,25 @@
         <v>29</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D64" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G64" s="98">
         <v>1</v>
       </c>
       <c r="H64" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I64" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4419,19 +4419,19 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G65" s="98">
         <v>1</v>
       </c>
       <c r="H65" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I65" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4448,19 +4448,19 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G66" s="98">
         <v>1</v>
       </c>
       <c r="H66" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I66" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4471,25 +4471,25 @@
         <v>28</v>
       </c>
       <c r="C67" s="100" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D67" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G67" s="98">
         <v>1</v>
       </c>
       <c r="H67" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I67" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4500,25 +4500,25 @@
         <v>28</v>
       </c>
       <c r="C68" s="100" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D68" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E68" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G68" s="98">
         <v>1</v>
       </c>
       <c r="H68" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4529,25 +4529,25 @@
         <v>29</v>
       </c>
       <c r="C69" s="100" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D69" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E69" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G69" s="98">
         <v>1</v>
       </c>
       <c r="H69" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I69" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4558,25 +4558,25 @@
         <v>28</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D70" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E70" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G70" s="98">
         <v>1</v>
       </c>
       <c r="H70" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4587,25 +4587,25 @@
         <v>28</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E71" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G71" s="98">
         <v>1</v>
       </c>
       <c r="H71" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4616,25 +4616,25 @@
         <v>3</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E72" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G72" s="98">
         <v>1</v>
       </c>
       <c r="H72" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4645,25 +4645,25 @@
         <v>3</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E73" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G73" s="98">
         <v>1</v>
       </c>
       <c r="H73" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I73" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4674,25 +4674,25 @@
         <v>3</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E74" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G74" s="98">
         <v>1</v>
       </c>
       <c r="H74" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I74" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4703,25 +4703,25 @@
         <v>3</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E75" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G75" s="98">
         <v>1</v>
       </c>
       <c r="H75" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I75" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4732,25 +4732,25 @@
         <v>3</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E76" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G76" s="98">
         <v>1</v>
       </c>
       <c r="H76" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I76" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4761,25 +4761,25 @@
         <v>3</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G77" s="98">
         <v>1</v>
       </c>
       <c r="H77" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I77" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4790,25 +4790,25 @@
         <v>29</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D78" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E78" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G78" s="98">
         <v>1</v>
       </c>
       <c r="H78" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I78" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4819,25 +4819,25 @@
         <v>28</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="96">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E79" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G79" s="98">
         <v>1</v>
       </c>
       <c r="H79" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I79" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4848,25 +4848,25 @@
         <v>28</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" s="96">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E80" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G80" s="98">
         <v>1</v>
       </c>
       <c r="H80" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I80" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4877,25 +4877,25 @@
         <v>5</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E81" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G81" s="98">
         <v>1</v>
       </c>
       <c r="H81" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I81" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4906,25 +4906,25 @@
         <v>5</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E82" s="99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G82" s="98">
         <v>1</v>
       </c>
       <c r="H82" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I82" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4935,25 +4935,25 @@
         <v>10</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D83" s="101">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F83" s="69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G83" s="98">
         <v>1</v>
       </c>
       <c r="H83" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I83" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4964,25 +4964,25 @@
         <v>10</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D84" s="101">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F84" s="69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G84" s="98">
         <v>1</v>
       </c>
       <c r="H84" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I84" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4993,25 +4993,25 @@
         <v>30</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D85" s="96">
         <v>0</v>
       </c>
       <c r="E85" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F85" s="69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G85" s="98">
         <v>1</v>
       </c>
       <c r="H85" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I85" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5022,25 +5022,25 @@
         <v>30</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D86" s="96">
         <v>0</v>
       </c>
       <c r="E86" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F86" s="69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G86" s="98">
         <v>1</v>
       </c>
       <c r="H86" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I86" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -5075,16 +5075,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,16 +6734,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="80" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6825,19 +6825,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="E1" s="68" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6884,8 +6884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8373E96-6BC6-B04B-A341-C220E1DA9E3B}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6899,8 +6899,7 @@
     <col min="12" max="12" width="12" style="64" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="64" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="64" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="64" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="64" customWidth="1"/>
+    <col min="15" max="16" width="14.6640625" style="64" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.1640625" style="64" customWidth="1"/>
     <col min="18" max="18" width="65.6640625" style="9" customWidth="1"/>
     <col min="19" max="19" width="44.6640625" style="65" customWidth="1"/>
@@ -6951,16 +6950,16 @@
         <v>154</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -6974,10 +6973,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="22">
         <v>0.8</v>
@@ -6995,16 +6994,16 @@
         <v>0.95</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O2" s="25">
         <v>0.2</v>
@@ -7016,7 +7015,7 @@
         <v>0.1</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7030,10 +7029,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
@@ -7051,16 +7050,16 @@
         <v>0.75</v>
       </c>
       <c r="K3" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O3" s="25">
         <v>0.5</v>
@@ -7072,7 +7071,7 @@
         <v>0.1</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7086,10 +7085,10 @@
         <v>57</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="35">
         <v>1.1000000000000001</v>
@@ -7107,16 +7106,16 @@
         <v>0.3</v>
       </c>
       <c r="K4" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O4" s="25">
         <v>1</v>
@@ -7128,7 +7127,7 @@
         <v>0.5</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7142,10 +7141,10 @@
         <v>58</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F5" s="36">
         <v>1.4</v>
@@ -7163,16 +7162,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O5" s="25">
         <v>4.3</v>
@@ -7184,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7198,10 +7197,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" s="37">
         <v>0.15</v>
@@ -7219,16 +7218,16 @@
         <v>0.95</v>
       </c>
       <c r="K6" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O6" s="39">
         <v>3</v>
@@ -7240,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7254,10 +7253,10 @@
         <v>56</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="37">
         <v>0.3</v>
@@ -7275,16 +7274,16 @@
         <v>0.75</v>
       </c>
       <c r="K7" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O7" s="42">
         <v>20</v>
@@ -7296,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7310,10 +7309,10 @@
         <v>57</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="38">
         <v>0.8</v>
@@ -7331,16 +7330,16 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O8" s="42">
         <v>60</v>
@@ -7352,7 +7351,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7366,10 +7365,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" s="38">
         <v>1.1000000000000001</v>
@@ -7387,16 +7386,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O9" s="45">
         <v>102.85714285714286</v>
@@ -7408,7 +7407,7 @@
         <v>8</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="48" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7422,10 +7421,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="22">
         <v>0.36</v>
@@ -7443,16 +7442,16 @@
         <v>0.95</v>
       </c>
       <c r="K10" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O10" s="25">
         <v>0.2</v>
@@ -7464,7 +7463,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7478,10 +7477,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" s="32">
         <v>0.6</v>
@@ -7499,16 +7498,16 @@
         <v>0.75</v>
       </c>
       <c r="K11" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O11" s="25">
         <v>0.5</v>
@@ -7520,7 +7519,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7534,10 +7533,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="32">
         <v>1.2</v>
@@ -7555,16 +7554,16 @@
         <v>0.3</v>
       </c>
       <c r="K12" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O12" s="25">
         <v>1</v>
@@ -7576,7 +7575,7 @@
         <v>0.5</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7590,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="36">
         <v>1.5</v>
@@ -7611,16 +7610,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O13" s="25">
         <v>4.3</v>
@@ -7632,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7646,10 +7645,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="22">
         <v>0.65</v>
@@ -7667,16 +7666,16 @@
         <v>0.95</v>
       </c>
       <c r="K14" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O14" s="39">
         <v>1</v>
@@ -7688,7 +7687,7 @@
         <v>0.5</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7702,10 +7701,10 @@
         <v>56</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="32">
         <v>1</v>
@@ -7723,16 +7722,16 @@
         <v>0.75</v>
       </c>
       <c r="K15" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N15" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O15" s="42">
         <v>3</v>
@@ -7744,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7758,10 +7757,10 @@
         <v>57</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="35">
         <v>1.1499999999999999</v>
@@ -7779,16 +7778,16 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O16" s="42">
         <v>15</v>
@@ -7800,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7814,10 +7813,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="36">
         <v>1.3</v>
@@ -7835,16 +7834,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O17" s="42">
         <v>30</v>
@@ -7856,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7870,10 +7869,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F18" s="49">
         <v>0.32</v>
@@ -7891,16 +7890,16 @@
         <v>0.95</v>
       </c>
       <c r="K18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O18" s="39">
         <v>5</v>
@@ -7912,7 +7911,7 @@
         <v>0.3</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7926,10 +7925,10 @@
         <v>56</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="35">
         <v>0.55000000000000004</v>
@@ -7947,16 +7946,16 @@
         <v>0.75</v>
       </c>
       <c r="K19" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O19" s="42">
         <v>10</v>
@@ -7968,7 +7967,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7982,10 +7981,10 @@
         <v>57</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F20" s="32">
         <v>1</v>
@@ -8003,16 +8002,16 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O20" s="42">
         <v>21</v>
@@ -8024,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8038,10 +8037,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="36">
         <v>1.35</v>
@@ -8059,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K21" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O21" s="42">
         <v>42.857142857142854</v>
@@ -8080,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8094,10 +8093,10 @@
         <v>54</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F22" s="22">
         <v>0.4</v>
@@ -8115,16 +8114,16 @@
         <v>0.95</v>
       </c>
       <c r="K22" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O22" s="39">
         <v>5</v>
@@ -8136,7 +8135,7 @@
         <v>0.5</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8150,10 +8149,10 @@
         <v>56</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F23" s="35">
         <v>0.56000000000000005</v>
@@ -8171,16 +8170,16 @@
         <v>0.75</v>
       </c>
       <c r="K23" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N23" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N23" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O23" s="42">
         <v>17</v>
@@ -8192,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8206,10 +8205,10 @@
         <v>57</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F24" s="35">
         <v>0.9</v>
@@ -8227,16 +8226,16 @@
         <v>0.3</v>
       </c>
       <c r="K24" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N24" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O24" s="42">
         <v>37</v>
@@ -8248,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8262,10 +8261,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="36">
         <v>1.1000000000000001</v>
@@ -8283,16 +8282,16 @@
         <v>0</v>
       </c>
       <c r="K25" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N25" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O25" s="42">
         <v>77.142857142857139</v>
@@ -8304,7 +8303,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8318,10 +8317,10 @@
         <v>54</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F26" s="49">
         <v>0.25</v>
@@ -8339,16 +8338,16 @@
         <v>0.95</v>
       </c>
       <c r="K26" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O26" s="39">
         <v>1</v>
@@ -8360,7 +8359,7 @@
         <v>0.2</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8374,10 +8373,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="35">
         <v>0.36</v>
@@ -8395,16 +8394,16 @@
         <v>0.75</v>
       </c>
       <c r="K27" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O27" s="42">
         <v>4</v>
@@ -8416,7 +8415,7 @@
         <v>0.5</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8430,10 +8429,10 @@
         <v>57</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F28" s="32">
         <v>0.53</v>
@@ -8451,16 +8450,16 @@
         <v>0.3</v>
       </c>
       <c r="K28" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O28" s="42">
         <v>8</v>
@@ -8472,7 +8471,7 @@
         <v>1.5</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8486,10 +8485,10 @@
         <v>58</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F29" s="54">
         <v>1</v>
@@ -8507,16 +8506,16 @@
         <v>0</v>
       </c>
       <c r="K29" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N29" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N29" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O29" s="42">
         <v>12</v>
@@ -8528,7 +8527,7 @@
         <v>3</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8542,10 +8541,10 @@
         <v>54</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="49">
         <v>0.25</v>
@@ -8563,16 +8562,16 @@
         <v>0.95</v>
       </c>
       <c r="K30" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N30" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O30" s="39">
         <v>1</v>
@@ -8584,7 +8583,7 @@
         <v>0.2</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8598,10 +8597,10 @@
         <v>56</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F31" s="35">
         <v>0.36</v>
@@ -8619,16 +8618,16 @@
         <v>0.75</v>
       </c>
       <c r="K31" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N31" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O31" s="42">
         <v>4</v>
@@ -8640,7 +8639,7 @@
         <v>0.5</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8654,10 +8653,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F32" s="32">
         <v>0.53</v>
@@ -8675,16 +8674,16 @@
         <v>0.3</v>
       </c>
       <c r="K32" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O32" s="42">
         <v>8</v>
@@ -8696,7 +8695,7 @@
         <v>1.5</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8710,10 +8709,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F33" s="54">
         <v>1</v>
@@ -8731,16 +8730,16 @@
         <v>0</v>
       </c>
       <c r="K33" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N33" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N33" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O33" s="42">
         <v>12</v>
@@ -8752,7 +8751,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8766,10 +8765,10 @@
         <v>54</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F34" s="49">
         <v>0.25</v>
@@ -8787,16 +8786,16 @@
         <v>0.95</v>
       </c>
       <c r="K34" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N34" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O34" s="39">
         <v>1</v>
@@ -8808,7 +8807,7 @@
         <v>0.2</v>
       </c>
       <c r="R34" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8822,10 +8821,10 @@
         <v>56</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F35" s="35">
         <v>0.36</v>
@@ -8843,16 +8842,16 @@
         <v>0.75</v>
       </c>
       <c r="K35" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N35" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M35" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N35" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O35" s="42">
         <v>4</v>
@@ -8864,7 +8863,7 @@
         <v>0.5</v>
       </c>
       <c r="R35" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8878,10 +8877,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F36" s="32">
         <v>0.53</v>
@@ -8899,16 +8898,16 @@
         <v>0.3</v>
       </c>
       <c r="K36" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N36" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O36" s="42">
         <v>8</v>
@@ -8920,7 +8919,7 @@
         <v>1.5</v>
       </c>
       <c r="R36" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8934,10 +8933,10 @@
         <v>58</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F37" s="54">
         <v>1</v>
@@ -8955,16 +8954,16 @@
         <v>0</v>
       </c>
       <c r="K37" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N37" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N37" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O37" s="42">
         <v>12</v>
@@ -8976,7 +8975,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -8990,10 +8989,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F38" s="22">
         <v>0.4</v>
@@ -9011,16 +9010,16 @@
         <v>0.95</v>
       </c>
       <c r="K38" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N38" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N38" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O38" s="39">
         <v>3</v>
@@ -9032,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9046,10 +9045,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F39" s="35">
         <v>0.67</v>
@@ -9067,16 +9066,16 @@
         <v>0.75</v>
       </c>
       <c r="K39" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N39" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L39" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N39" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O39" s="42">
         <v>20</v>
@@ -9088,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="R39" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9102,10 +9101,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F40" s="35">
         <v>0.85</v>
@@ -9123,16 +9122,16 @@
         <v>0.3</v>
       </c>
       <c r="K40" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N40" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N40" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O40" s="42">
         <v>60</v>
@@ -9144,7 +9143,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9158,10 +9157,10 @@
         <v>58</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F41" s="36">
         <v>1</v>
@@ -9179,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N41" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M41" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N41" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O41" s="42">
         <v>102.85714285714286</v>
@@ -9200,7 +9199,7 @@
         <v>8</v>
       </c>
       <c r="R41" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9214,10 +9213,10 @@
         <v>54</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F42" s="22">
         <v>0.4</v>
@@ -9235,16 +9234,16 @@
         <v>0.95</v>
       </c>
       <c r="K42" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N42" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O42" s="39">
         <v>5</v>
@@ -9256,7 +9255,7 @@
         <v>0.5</v>
       </c>
       <c r="R42" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9270,10 +9269,10 @@
         <v>56</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F43" s="32">
         <v>0.65</v>
@@ -9291,16 +9290,16 @@
         <v>0.75</v>
       </c>
       <c r="K43" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N43" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L43" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M43" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N43" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O43" s="42">
         <v>17</v>
@@ -9312,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,10 +9325,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F44" s="35">
         <v>0.95</v>
@@ -9347,16 +9346,16 @@
         <v>0.3</v>
       </c>
       <c r="K44" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L44" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M44" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N44" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O44" s="42">
         <v>37</v>
@@ -9368,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="R44" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9382,10 +9381,10 @@
         <v>58</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F45" s="36">
         <v>1.18</v>
@@ -9403,16 +9402,16 @@
         <v>0</v>
       </c>
       <c r="K45" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N45" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M45" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N45" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O45" s="42">
         <v>77.142857142857139</v>
@@ -9424,7 +9423,7 @@
         <v>4</v>
       </c>
       <c r="R45" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9438,10 +9437,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F46" s="22">
         <v>0.25</v>
@@ -9459,16 +9458,16 @@
         <v>0.95</v>
       </c>
       <c r="K46" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O46" s="39">
         <v>5</v>
@@ -9480,7 +9479,7 @@
         <v>0.5</v>
       </c>
       <c r="R46" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9494,10 +9493,10 @@
         <v>56</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F47" s="32">
         <v>0.52</v>
@@ -9515,16 +9514,16 @@
         <v>0.75</v>
       </c>
       <c r="K47" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N47" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M47" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N47" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O47" s="42">
         <v>17</v>
@@ -9536,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9550,10 +9549,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F48" s="32">
         <v>0.95</v>
@@ -9571,16 +9570,16 @@
         <v>0.3</v>
       </c>
       <c r="K48" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M48" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L48" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M48" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N48" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O48" s="42">
         <v>37</v>
@@ -9592,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="R48" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9606,10 +9605,10 @@
         <v>58</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F49" s="54">
         <v>1.64</v>
@@ -9627,16 +9626,16 @@
         <v>0</v>
       </c>
       <c r="K49" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N49" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L49" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M49" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N49" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O49" s="42">
         <v>77.142857142857139</v>
@@ -9648,7 +9647,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9662,10 +9661,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F50" s="49">
         <v>0.53</v>
@@ -9683,16 +9682,16 @@
         <v>0.95</v>
       </c>
       <c r="K50" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N50" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M50" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O50" s="39">
         <v>5</v>
@@ -9704,7 +9703,7 @@
         <v>0.5</v>
       </c>
       <c r="R50" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9718,10 +9717,10 @@
         <v>56</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F51" s="35">
         <v>0.92</v>
@@ -9739,16 +9738,16 @@
         <v>0.75</v>
       </c>
       <c r="K51" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N51" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M51" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N51" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O51" s="42">
         <v>17</v>
@@ -9760,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9774,10 +9773,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F52" s="32">
         <v>1.6</v>
@@ -9795,16 +9794,16 @@
         <v>0.3</v>
       </c>
       <c r="K52" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L52" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N52" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M52" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N52" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O52" s="42">
         <v>37</v>
@@ -9816,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="R52" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9830,10 +9829,10 @@
         <v>58</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F53" s="36">
         <v>1.8</v>
@@ -9851,16 +9850,16 @@
         <v>0</v>
       </c>
       <c r="K53" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N53" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M53" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N53" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O53" s="42">
         <v>77.142857142857139</v>
@@ -9872,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9886,10 +9885,10 @@
         <v>54</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F54" s="49">
         <v>0.6</v>
@@ -9907,16 +9906,16 @@
         <v>0.95</v>
       </c>
       <c r="K54" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N54" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="N54" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="O54" s="39">
         <v>5</v>
@@ -9928,7 +9927,7 @@
         <v>0.5</v>
       </c>
       <c r="R54" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9942,10 +9941,10 @@
         <v>56</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F55" s="35">
         <v>0.85</v>
@@ -9963,16 +9962,16 @@
         <v>0.75</v>
       </c>
       <c r="K55" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N55" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L55" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M55" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N55" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O55" s="42">
         <v>17</v>
@@ -9984,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="R55" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9998,10 +9997,10 @@
         <v>57</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F56" s="32">
         <v>1.25</v>
@@ -10019,16 +10018,16 @@
         <v>0.3</v>
       </c>
       <c r="K56" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N56" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L56" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N56" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O56" s="42">
         <v>37</v>
@@ -10040,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10054,10 +10053,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F57" s="36">
         <v>1.5</v>
@@ -10075,16 +10074,16 @@
         <v>0</v>
       </c>
       <c r="K57" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="M57" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N57" s="61" t="s">
         <v>161</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="N57" s="61" t="s">
-        <v>163</v>
       </c>
       <c r="O57" s="45">
         <v>77.142857142857139</v>
@@ -10096,7 +10095,7 @@
         <v>4</v>
       </c>
       <c r="R57" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10110,10 +10109,10 @@
         <v>54</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F58" s="22">
         <v>0.28000000000000003</v>
@@ -10131,16 +10130,16 @@
         <v>0.95</v>
       </c>
       <c r="K58" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N58" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N58" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O58" s="42">
         <v>5</v>
@@ -10152,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="R58" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10166,10 +10165,10 @@
         <v>56</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F59" s="32">
         <v>0.72</v>
@@ -10187,16 +10186,16 @@
         <v>0.75</v>
       </c>
       <c r="K59" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N59" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L59" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M59" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N59" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O59" s="42">
         <v>20</v>
@@ -10208,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10222,10 +10221,10 @@
         <v>57</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F60" s="32">
         <v>1.66</v>
@@ -10243,16 +10242,16 @@
         <v>0.3</v>
       </c>
       <c r="K60" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M60" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N60" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L60" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M60" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N60" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O60" s="42">
         <v>50</v>
@@ -10264,7 +10263,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10278,10 +10277,10 @@
         <v>58</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F61" s="54">
         <v>2.17</v>
@@ -10299,16 +10298,16 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="M61" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N61" s="61" t="s">
         <v>161</v>
-      </c>
-      <c r="L61" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="M61" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="N61" s="61" t="s">
-        <v>163</v>
       </c>
       <c r="O61" s="45">
         <v>102.85714285714286</v>
@@ -10320,7 +10319,7 @@
         <v>8</v>
       </c>
       <c r="R61" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10334,10 +10333,10 @@
         <v>54</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F62" s="22">
         <v>0.15</v>
@@ -10355,16 +10354,16 @@
         <v>0.95</v>
       </c>
       <c r="K62" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N62" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L62" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M62" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N62" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O62" s="39">
         <v>5</v>
@@ -10376,7 +10375,7 @@
         <v>0.5</v>
       </c>
       <c r="R62" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10390,10 +10389,10 @@
         <v>56</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F63" s="32">
         <v>0.36</v>
@@ -10411,16 +10410,16 @@
         <v>0.75</v>
       </c>
       <c r="K63" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M63" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N63" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M63" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N63" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O63" s="42">
         <v>17</v>
@@ -10432,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10446,10 +10445,10 @@
         <v>57</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F64" s="32">
         <v>0.72</v>
@@ -10467,16 +10466,16 @@
         <v>0.3</v>
       </c>
       <c r="K64" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L64" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M64" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N64" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L64" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M64" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N64" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O64" s="42">
         <v>37</v>
@@ -10488,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="R64" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10502,10 +10501,10 @@
         <v>58</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F65" s="54">
         <v>1.5</v>
@@ -10523,16 +10522,16 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N65" s="61" t="s">
         <v>161</v>
-      </c>
-      <c r="L65" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="M65" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>163</v>
       </c>
       <c r="O65" s="45">
         <v>77.142857142857139</v>
@@ -10544,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="R65" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10558,10 +10557,10 @@
         <v>54</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F66" s="22">
         <v>10</v>
@@ -10579,16 +10578,16 @@
         <v>1</v>
       </c>
       <c r="K66" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N66" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L66" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M66" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N66" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O66" s="39">
         <v>5</v>
@@ -10600,7 +10599,7 @@
         <v>0.5</v>
       </c>
       <c r="R66" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10614,10 +10613,10 @@
         <v>56</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F67" s="32">
         <v>10</v>
@@ -10635,16 +10634,16 @@
         <v>1</v>
       </c>
       <c r="K67" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N67" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L67" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M67" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N67" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O67" s="42">
         <v>17</v>
@@ -10656,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="R67" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10670,10 +10669,10 @@
         <v>57</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F68" s="32">
         <v>10</v>
@@ -10691,16 +10690,16 @@
         <v>1</v>
       </c>
       <c r="K68" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="N68" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="L68" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="M68" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N68" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="O68" s="42">
         <v>37</v>
@@ -10712,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="R68" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10726,10 +10725,10 @@
         <v>58</v>
       </c>
       <c r="D69" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F69" s="54">
         <v>10</v>
@@ -10747,16 +10746,16 @@
         <v>1</v>
       </c>
       <c r="K69" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="L69" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="M69" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N69" s="61" t="s">
         <v>161</v>
-      </c>
-      <c r="L69" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="M69" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="N69" s="61" t="s">
-        <v>163</v>
       </c>
       <c r="O69" s="45">
         <v>77.142857142857139</v>
@@ -10768,7 +10767,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
+++ b/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sira/tests/models/potable_water_treatment_plant_A/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\sira\tests\models\potable_water_treatment_plant_A\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089AB881-48AD-F442-8999-9C29B4955513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED16707-3FDB-4A78-9B7F-5B3F719B9E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="6" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="2" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="1" r:id="rId1"/>
@@ -598,27 +598,15 @@
     <t>pos_y</t>
   </si>
   <si>
-    <t>Energy Source</t>
-  </si>
-  <si>
     <t>supply</t>
   </si>
   <si>
     <t>Supply</t>
   </si>
   <si>
-    <t>Water Supply</t>
-  </si>
-  <si>
     <t>transshipment</t>
   </si>
   <si>
-    <t>Water Supply Pipe</t>
-  </si>
-  <si>
-    <t>Chem Dosage Stage 1</t>
-  </si>
-  <si>
     <t>dependency</t>
   </si>
   <si>
@@ -631,9 +619,6 @@
     <t xml:space="preserve">Coagulation and Flocculation </t>
   </si>
   <si>
-    <t>DAF Connector and Pump</t>
-  </si>
-  <si>
     <t>Dissolved Air Flotation</t>
   </si>
   <si>
@@ -664,9 +649,6 @@
     <t>Chlorine Disinfection</t>
   </si>
   <si>
-    <t>Settling</t>
-  </si>
-  <si>
     <t>Clearwell Input Pipework</t>
   </si>
   <si>
@@ -676,9 +658,6 @@
     <t>Clearwell</t>
   </si>
   <si>
-    <t>Reticulation</t>
-  </si>
-  <si>
     <t>Clearwell Output Pipe</t>
   </si>
   <si>
@@ -700,9 +679,6 @@
     <t>Supply to Distribution</t>
   </si>
   <si>
-    <t>SYSTEM OUTPUT</t>
-  </si>
-  <si>
     <t>sink</t>
   </si>
   <si>
@@ -809,6 +785,30 @@
   </si>
   <si>
     <t>recovery_param2</t>
+  </si>
+  <si>
+    <t>Chemical Tank</t>
+  </si>
+  <si>
+    <t>Sedimentation Basin</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Pipework</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Large Basin</t>
+  </si>
+  <si>
+    <t>Small Basin</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -1985,35 +1985,35 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="39.69921875" style="105" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="105" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="83.69921875" style="105" customWidth="1"/>
     <col min="4" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C1" s="104" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C2" s="108"/>
     </row>
-    <row r="3" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>31</v>
       </c>
@@ -2022,34 +2022,34 @@
       </c>
       <c r="C3" s="108"/>
     </row>
-    <row r="4" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="108"/>
     </row>
-    <row r="5" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C5" s="108"/>
     </row>
-    <row r="6" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="108"/>
     </row>
-    <row r="7" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>33</v>
       </c>
@@ -2058,145 +2058,145 @@
       </c>
       <c r="C7" s="108"/>
     </row>
-    <row r="8" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C8" s="108"/>
     </row>
-    <row r="9" spans="1:3" s="109" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C9" s="108"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="112"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="112"/>
       <c r="B11" s="112"/>
       <c r="C11" s="112"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="112"/>
       <c r="B12" s="112"/>
       <c r="C12" s="112"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="112"/>
       <c r="B13" s="112"/>
       <c r="C13" s="112"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="112"/>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="112"/>
       <c r="B15" s="112"/>
       <c r="C15" s="112"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="112"/>
       <c r="B16" s="112"/>
       <c r="C16" s="112"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="112"/>
       <c r="B17" s="112"/>
       <c r="C17" s="112"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="112"/>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="112"/>
       <c r="B19" s="112"/>
       <c r="C19" s="112"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="112"/>
       <c r="B20" s="112"/>
       <c r="C20" s="112"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="112"/>
       <c r="B21" s="112"/>
       <c r="C21" s="112"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="112"/>
       <c r="B22" s="112"/>
       <c r="C22" s="112"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="112"/>
       <c r="B23" s="112"/>
       <c r="C23" s="112"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="112"/>
       <c r="B24" s="112"/>
       <c r="C24" s="112"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="112"/>
       <c r="B25" s="112"/>
       <c r="C25" s="112"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="112"/>
       <c r="B26" s="112"/>
       <c r="C26" s="112"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="112"/>
       <c r="B27" s="112"/>
       <c r="C27" s="112"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="112"/>
       <c r="B28" s="112"/>
       <c r="C28" s="112"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="112"/>
       <c r="B29" s="112"/>
       <c r="C29" s="112"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="112"/>
       <c r="B30" s="112"/>
       <c r="C30" s="112"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="112"/>
       <c r="B31" s="112"/>
       <c r="C31" s="112"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="112"/>
       <c r="B32" s="112"/>
       <c r="C32" s="112"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="112"/>
       <c r="B33" s="112"/>
       <c r="C33" s="112"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="112"/>
       <c r="B34" s="112"/>
       <c r="C34" s="112"/>
@@ -2225,16 +2225,16 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2242,193 +2242,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
@@ -2445,82 +2445,82 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="165" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
         <v>222</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>226</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>229</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>231</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
         <v>232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2532,24 +2532,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9367EF-BD79-A044-89F7-C4AD289DA10D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="95" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="95" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="95" customWidth="1"/>
-    <col min="5" max="5" width="19" style="95" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" style="95" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="95" customWidth="1"/>
+    <col min="3" max="3" width="50.796875" style="95" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" style="95" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" style="95" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="95" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="95" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.5" style="95" customWidth="1"/>
     <col min="10" max="16384" width="11" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
         <v>177</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>68</v>
       </c>
@@ -2586,17 +2586,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="D2" s="96">
         <v>0.02</v>
       </c>
       <c r="E2" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="69" t="s">
-        <v>187</v>
-      </c>
       <c r="G2" s="98">
         <v>1</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>53</v>
       </c>
@@ -2615,17 +2615,17 @@
         <v>8</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="D3" s="96">
         <v>0.04</v>
       </c>
       <c r="E3" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="69" t="s">
-        <v>187</v>
-      </c>
       <c r="G3" s="98">
         <v>1</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>141</v>
       </c>
@@ -2644,17 +2644,17 @@
         <v>27</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D4" s="96">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E4" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="69" t="s">
-        <v>187</v>
-      </c>
       <c r="G4" s="98">
         <v>1</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
         <v>142</v>
       </c>
@@ -2673,17 +2673,17 @@
         <v>27</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D5" s="96">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E5" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="69" t="s">
-        <v>187</v>
-      </c>
       <c r="G5" s="98">
         <v>1</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
         <v>80</v>
       </c>
@@ -2702,16 +2702,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D6" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="98">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>97</v>
       </c>
@@ -2731,16 +2731,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="D7" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="98">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>61</v>
       </c>
@@ -2760,16 +2760,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D8" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G8" s="98">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>59</v>
       </c>
@@ -2789,16 +2789,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D9" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G9" s="98">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69" t="s">
         <v>108</v>
       </c>
@@ -2818,16 +2818,16 @@
         <v>28</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D10" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="98">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69" t="s">
         <v>109</v>
       </c>
@@ -2847,16 +2847,16 @@
         <v>28</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D11" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G11" s="98">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
         <v>110</v>
       </c>
@@ -2876,16 +2876,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D12" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G12" s="98">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69" t="s">
         <v>111</v>
       </c>
@@ -2905,16 +2905,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D13" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G13" s="98">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>112</v>
       </c>
@@ -2934,16 +2934,16 @@
         <v>28</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D14" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G14" s="98">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>113</v>
       </c>
@@ -2963,16 +2963,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D15" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G15" s="98">
         <v>1</v>
@@ -2984,7 +2984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>114</v>
       </c>
@@ -2992,16 +2992,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D16" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="98">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
         <v>115</v>
       </c>
@@ -3021,16 +3021,16 @@
         <v>28</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="D17" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G17" s="98">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
         <v>89</v>
       </c>
@@ -3050,16 +3050,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D18" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G18" s="98">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
         <v>90</v>
       </c>
@@ -3079,16 +3079,16 @@
         <v>22</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D19" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G19" s="98">
         <v>1</v>
@@ -3100,7 +3100,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
         <v>91</v>
       </c>
@@ -3108,16 +3108,16 @@
         <v>22</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D20" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G20" s="98">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69" t="s">
         <v>92</v>
       </c>
@@ -3137,16 +3137,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D21" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G21" s="98">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69" t="s">
         <v>93</v>
       </c>
@@ -3166,16 +3166,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D22" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G22" s="98">
         <v>1</v>
@@ -3187,7 +3187,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69" t="s">
         <v>94</v>
       </c>
@@ -3195,16 +3195,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D23" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G23" s="98">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69" t="s">
         <v>95</v>
       </c>
@@ -3224,16 +3224,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D24" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G24" s="98">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="69" t="s">
         <v>96</v>
       </c>
@@ -3253,16 +3253,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D25" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G25" s="98">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
         <v>134</v>
       </c>
@@ -3282,16 +3282,16 @@
         <v>13</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="D26" s="96">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G26" s="98">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69" t="s">
         <v>72</v>
       </c>
@@ -3311,16 +3311,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D27" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G27" s="98">
         <v>1</v>
@@ -3332,7 +3332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
         <v>73</v>
       </c>
@@ -3340,16 +3340,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D28" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G28" s="98">
         <v>1</v>
@@ -3361,7 +3361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>74</v>
       </c>
@@ -3369,16 +3369,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D29" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G29" s="98">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69" t="s">
         <v>75</v>
       </c>
@@ -3398,16 +3398,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D30" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G30" s="98">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="69" t="s">
         <v>76</v>
       </c>
@@ -3427,16 +3427,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D31" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G31" s="98">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
         <v>77</v>
       </c>
@@ -3456,16 +3456,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D32" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G32" s="98">
         <v>1</v>
@@ -3477,7 +3477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
         <v>78</v>
       </c>
@@ -3485,16 +3485,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D33" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G33" s="98">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
         <v>79</v>
       </c>
@@ -3514,16 +3514,16 @@
         <v>3</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D34" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G34" s="98">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="69" t="s">
         <v>70</v>
       </c>
@@ -3543,16 +3543,16 @@
         <v>29</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="D35" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G35" s="98">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="69" t="s">
         <v>127</v>
       </c>
@@ -3572,16 +3572,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="D36" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G36" s="98">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="69" t="s">
         <v>128</v>
       </c>
@@ -3601,16 +3601,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="D37" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G37" s="98">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>102</v>
       </c>
@@ -3630,16 +3630,16 @@
         <v>5</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D38" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E38" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G38" s="98">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>100</v>
       </c>
@@ -3659,16 +3659,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D39" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G39" s="98">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
         <v>101</v>
       </c>
@@ -3688,16 +3688,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D40" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G40" s="98">
         <v>1</v>
@@ -3709,7 +3709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>71</v>
       </c>
@@ -3717,16 +3717,16 @@
         <v>29</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D41" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G41" s="98">
         <v>1</v>
@@ -3738,7 +3738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>116</v>
       </c>
@@ -3746,16 +3746,16 @@
         <v>28</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D42" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G42" s="98">
         <v>1</v>
@@ -3767,7 +3767,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
         <v>117</v>
       </c>
@@ -3775,16 +3775,16 @@
         <v>28</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D43" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G43" s="98">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>118</v>
       </c>
@@ -3804,16 +3804,16 @@
         <v>28</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D44" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G44" s="98">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
         <v>119</v>
       </c>
@@ -3833,16 +3833,16 @@
         <v>28</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D45" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G45" s="98">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
         <v>120</v>
       </c>
@@ -3862,16 +3862,16 @@
         <v>28</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D46" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E46" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G46" s="98">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>121</v>
       </c>
@@ -3891,16 +3891,16 @@
         <v>28</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D47" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G47" s="98">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
         <v>122</v>
       </c>
@@ -3920,16 +3920,16 @@
         <v>28</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D48" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E48" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G48" s="98">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
         <v>123</v>
       </c>
@@ -3949,16 +3949,16 @@
         <v>28</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D49" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G49" s="98">
         <v>1</v>
@@ -3970,7 +3970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69" t="s">
         <v>81</v>
       </c>
@@ -3978,16 +3978,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D50" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G50" s="98">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
         <v>82</v>
       </c>
@@ -4007,16 +4007,16 @@
         <v>3</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D51" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G51" s="98">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69" t="s">
         <v>83</v>
       </c>
@@ -4036,16 +4036,16 @@
         <v>3</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D52" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G52" s="98">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="69" t="s">
         <v>84</v>
       </c>
@@ -4065,16 +4065,16 @@
         <v>3</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D53" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G53" s="98">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="69" t="s">
         <v>85</v>
       </c>
@@ -4094,16 +4094,16 @@
         <v>3</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D54" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G54" s="98">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="69" t="s">
         <v>86</v>
       </c>
@@ -4123,16 +4123,16 @@
         <v>3</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D55" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E55" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G55" s="98">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="69" t="s">
         <v>87</v>
       </c>
@@ -4152,16 +4152,16 @@
         <v>3</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D56" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G56" s="98">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="69" t="s">
         <v>88</v>
       </c>
@@ -4181,16 +4181,16 @@
         <v>3</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D57" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G57" s="98">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="69" t="s">
         <v>124</v>
       </c>
@@ -4210,16 +4210,16 @@
         <v>28</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D58" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G58" s="98">
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="69" t="s">
         <v>103</v>
       </c>
@@ -4239,16 +4239,16 @@
         <v>28</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="D59" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G59" s="98">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="69" t="s">
         <v>65</v>
       </c>
@@ -4268,16 +4268,16 @@
         <v>5</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D60" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G60" s="98">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="69" t="s">
         <v>62</v>
       </c>
@@ -4297,16 +4297,16 @@
         <v>5</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D61" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E61" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G61" s="98">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="69" t="s">
         <v>64</v>
       </c>
@@ -4326,16 +4326,16 @@
         <v>3</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D62" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G62" s="98">
         <v>1</v>
@@ -4347,7 +4347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="69" t="s">
         <v>129</v>
       </c>
@@ -4355,16 +4355,16 @@
         <v>28</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="D63" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G63" s="98">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="69" t="s">
         <v>69</v>
       </c>
@@ -4384,16 +4384,16 @@
         <v>29</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="D64" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G64" s="98">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="69" t="s">
         <v>66</v>
       </c>
@@ -4413,16 +4413,16 @@
         <v>3</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D65" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G65" s="98">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="69" t="s">
         <v>67</v>
       </c>
@@ -4442,16 +4442,16 @@
         <v>3</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="D66" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G66" s="98">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
         <v>106</v>
       </c>
@@ -4471,16 +4471,16 @@
         <v>28</v>
       </c>
       <c r="C67" s="100" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D67" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G67" s="98">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
         <v>107</v>
       </c>
@@ -4500,16 +4500,16 @@
         <v>28</v>
       </c>
       <c r="C68" s="100" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D68" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E68" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G68" s="98">
         <v>1</v>
@@ -4521,7 +4521,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="69" t="s">
         <v>104</v>
       </c>
@@ -4529,16 +4529,16 @@
         <v>29</v>
       </c>
       <c r="C69" s="100" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D69" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E69" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G69" s="98">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
         <v>132</v>
       </c>
@@ -4558,16 +4558,16 @@
         <v>28</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D70" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E70" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G70" s="98">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="69" t="s">
         <v>133</v>
       </c>
@@ -4587,16 +4587,16 @@
         <v>28</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D71" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E71" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G71" s="98">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="69" t="s">
         <v>135</v>
       </c>
@@ -4616,16 +4616,16 @@
         <v>3</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D72" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E72" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G72" s="98">
         <v>1</v>
@@ -4637,7 +4637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="69" t="s">
         <v>136</v>
       </c>
@@ -4645,16 +4645,16 @@
         <v>3</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D73" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E73" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G73" s="98">
         <v>1</v>
@@ -4666,7 +4666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="69" t="s">
         <v>137</v>
       </c>
@@ -4674,16 +4674,16 @@
         <v>3</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D74" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E74" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G74" s="98">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69" t="s">
         <v>138</v>
       </c>
@@ -4703,16 +4703,16 @@
         <v>3</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D75" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E75" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G75" s="98">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
         <v>139</v>
       </c>
@@ -4732,16 +4732,16 @@
         <v>3</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D76" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E76" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G76" s="98">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
         <v>140</v>
       </c>
@@ -4761,16 +4761,16 @@
         <v>3</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D77" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G77" s="98">
         <v>1</v>
@@ -4782,7 +4782,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="69" t="s">
         <v>105</v>
       </c>
@@ -4790,16 +4790,16 @@
         <v>29</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D78" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E78" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G78" s="98">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69" t="s">
         <v>125</v>
       </c>
@@ -4819,16 +4819,16 @@
         <v>28</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="D79" s="96">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E79" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G79" s="98">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="69" t="s">
         <v>126</v>
       </c>
@@ -4848,16 +4848,16 @@
         <v>28</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="D80" s="96">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E80" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G80" s="98">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="69" t="s">
         <v>60</v>
       </c>
@@ -4877,16 +4877,16 @@
         <v>5</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D81" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E81" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G81" s="98">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="69" t="s">
         <v>63</v>
       </c>
@@ -4906,16 +4906,16 @@
         <v>5</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D82" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E82" s="99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G82" s="98">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>130</v>
       </c>
@@ -4935,16 +4935,16 @@
         <v>10</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D83" s="101">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F83" s="69" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G83" s="98">
         <v>1</v>
@@ -4956,7 +4956,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>131</v>
       </c>
@@ -4964,16 +4964,16 @@
         <v>10</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D84" s="101">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F84" s="69" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G84" s="98">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="69" t="s">
         <v>98</v>
       </c>
@@ -4993,16 +4993,16 @@
         <v>30</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D85" s="96">
         <v>0</v>
       </c>
       <c r="E85" s="102" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F85" s="69" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G85" s="98">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="69" t="s">
         <v>99</v>
       </c>
@@ -5022,16 +5022,16 @@
         <v>30</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D86" s="96">
         <v>0</v>
       </c>
       <c r="E86" s="102" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F86" s="69" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G86" s="98">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D88" s="103"/>
     </row>
   </sheetData>
@@ -5064,16 +5064,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="69" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="69" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="69"/>
+    <col min="4" max="4" width="14.296875" style="69" customWidth="1"/>
+    <col min="5" max="16384" width="10.796875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
         <v>173</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>141</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>142</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>68</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
         <v>53</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
         <v>80</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>61</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>59</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>97</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69" t="s">
         <v>97</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69" t="s">
         <v>97</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
         <v>97</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69" t="s">
         <v>97</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>97</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>97</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>97</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
         <v>108</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
         <v>109</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
         <v>110</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="90" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="90" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
         <v>111</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69" t="s">
         <v>112</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69" t="s">
         <v>113</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69" t="s">
         <v>114</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69" t="s">
         <v>115</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91" t="s">
         <v>134</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="s">
         <v>134</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="91" t="s">
         <v>134</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91" t="s">
         <v>134</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="91" t="s">
         <v>134</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91" t="s">
         <v>134</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="91" t="s">
         <v>134</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91" t="s">
         <v>134</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
         <v>89</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
         <v>90</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="69" t="s">
         <v>91</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="69" t="s">
         <v>92</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="69" t="s">
         <v>93</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
         <v>94</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>95</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
         <v>96</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>72</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69" t="s">
         <v>73</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69" t="s">
         <v>74</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>75</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69" t="s">
         <v>76</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
         <v>77</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
         <v>78</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
         <v>79</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
         <v>70</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69" t="s">
         <v>70</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
         <v>127</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69" t="s">
         <v>128</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="69" t="s">
         <v>102</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="69" t="s">
         <v>102</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="69" t="s">
         <v>100</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="69" t="s">
         <v>101</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="69" t="s">
         <v>71</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="69" t="s">
         <v>71</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="69" t="s">
         <v>71</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="69" t="s">
         <v>71</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="69" t="s">
         <v>71</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="69" t="s">
         <v>71</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="69" t="s">
         <v>71</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="69" t="s">
         <v>71</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="69" t="s">
         <v>116</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="69" t="s">
         <v>117</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
         <v>118</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
         <v>119</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="69" t="s">
         <v>120</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
         <v>121</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="69" t="s">
         <v>122</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="69" t="s">
         <v>123</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="69" t="s">
         <v>81</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="69" t="s">
         <v>82</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69" t="s">
         <v>83</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
         <v>84</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
         <v>85</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="69" t="s">
         <v>86</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69" t="s">
         <v>87</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="69" t="s">
         <v>88</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="69" t="s">
         <v>124</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="69" t="s">
         <v>103</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69" t="s">
         <v>65</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>62</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="69" t="s">
         <v>64</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="69" t="s">
         <v>129</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="69" t="s">
         <v>69</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="69" t="s">
         <v>69</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="69" t="s">
         <v>66</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="69" t="s">
         <v>67</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="69" t="s">
         <v>106</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="69" t="s">
         <v>107</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="69" t="s">
         <v>104</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="69" t="s">
         <v>104</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="69" t="s">
         <v>132</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="69" t="s">
         <v>132</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="69" t="s">
         <v>133</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="69" t="s">
         <v>133</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="69" t="s">
         <v>133</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="69" t="s">
         <v>133</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="69" t="s">
         <v>135</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="69" t="s">
         <v>136</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="69" t="s">
         <v>137</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="69" t="s">
         <v>138</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="69" t="s">
         <v>139</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="69" t="s">
         <v>140</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="69" t="s">
         <v>105</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="69" t="s">
         <v>105</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="69" t="s">
         <v>60</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="69" t="s">
         <v>63</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="69" t="s">
         <v>60</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="69" t="s">
         <v>63</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="69" t="s">
         <v>125</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="69" t="s">
         <v>126</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="69" t="s">
         <v>130</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="69" t="s">
         <v>131</v>
       </c>
@@ -6697,19 +6697,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6723,16 +6723,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5" style="69" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="18.296875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="69" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="69"/>
+    <col min="5" max="16384" width="10.796875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
         <v>168</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>141</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>142</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>68</v>
       </c>
@@ -6788,16 +6788,16 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="73"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="73"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="73"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="73"/>
     </row>
   </sheetData>
@@ -6813,17 +6813,17 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" style="69" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" style="69" customWidth="1"/>
     <col min="5" max="5" width="14" style="69" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="69"/>
+    <col min="6" max="16384" width="10.796875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
         <v>163</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>98</v>
       </c>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>99</v>
       </c>
@@ -6884,29 +6884,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8373E96-6BC6-B04B-A341-C220E1DA9E3B}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="63" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="9" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="9" customWidth="1"/>
-    <col min="6" max="8" width="14.1640625" style="63" customWidth="1"/>
-    <col min="9" max="11" width="11.1640625" style="64" customWidth="1"/>
+    <col min="3" max="4" width="13.69921875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="9" customWidth="1"/>
+    <col min="6" max="8" width="14.19921875" style="63" customWidth="1"/>
+    <col min="9" max="11" width="11.19921875" style="64" customWidth="1"/>
     <col min="12" max="12" width="12" style="64" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="64" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" style="64" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="64" customWidth="1"/>
-    <col min="15" max="16" width="14.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="64" customWidth="1"/>
-    <col min="18" max="18" width="65.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="44.6640625" style="65" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="65"/>
+    <col min="15" max="16" width="14.69921875" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.19921875" style="64" customWidth="1"/>
+    <col min="18" max="18" width="65.69921875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="44.69921875" style="65" customWidth="1"/>
+    <col min="20" max="16384" width="10.796875" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
@@ -6950,10 +6950,10 @@
         <v>154</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>155</v>
@@ -6962,7 +6962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="48" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="48" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <v>19</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>20</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>22</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>23</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
         <v>24</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50">
         <v>25</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52">
         <v>26</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="52">
         <v>27</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52">
         <v>28</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55">
         <v>29</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57">
         <v>31</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55">
         <v>33</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57">
         <v>35</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57">
         <v>36</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>38</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>39</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>40</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>42</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>44</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>46</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>47</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>48</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>50</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>51</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>52</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>54</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>55</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="59">
         <v>56</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>57</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>58</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>59</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="59">
         <v>60</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>61</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>62</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>63</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="59">
         <v>64</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>65</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>66</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>67</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="59">
         <v>68</v>
       </c>
@@ -10903,14 +10903,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="9" customWidth="1"/>
     <col min="3" max="3" width="89.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>82</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>82</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>89</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>89</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>89</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>90</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>90</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>91</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>91</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>91</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>92</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>92</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>93</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>93</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>93</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>94</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>94</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>94</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>95</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>95</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>96</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>96</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>96</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>96</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>97</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>97</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>97</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>97</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>98</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>98</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>98</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>98</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>99</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>99</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>99</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>100</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>100</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>100</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>101</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>101</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>101</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>102</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>102</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>102</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>102</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>103</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>103</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>103</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>103</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>104</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>104</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>104</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>105</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>105</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>105</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>105</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>106</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>106</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>106</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>107</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>107</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>107</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>108</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>108</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>108</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>108</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>109</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>109</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>109</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>109</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>110</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>110</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>110</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>110</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>111</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>111</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>111</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>111</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>112</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>112</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>112</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>112</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>113</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>113</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>113</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>113</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>114</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>114</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>114</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>114</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>115</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>115</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>115</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>115</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>116</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>116</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>116</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>117</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>117</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>117</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>117</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>118</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>118</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>118</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>119</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>119</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>119</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>119</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>120</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>120</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>120</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>120</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>121</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>121</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>121</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>121</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>122</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>122</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>122</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>122</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>123</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>123</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>123</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>123</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>124</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>124</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>124</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>124</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>125</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>125</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>125</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>125</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>126</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>126</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>126</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>126</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>127</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>127</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>127</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>127</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>128</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>128</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>128</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>128</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>129</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>129</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>129</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>129</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>130</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>130</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>130</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>130</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>131</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>131</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>131</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>131</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>132</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>132</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>132</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>132</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>133</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>133</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>133</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>134</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>134</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>134</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>134</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>135</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>135</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>135</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>135</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>136</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>136</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>136</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>136</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>137</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>137</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>137</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>137</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>138</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>138</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>138</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>138</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>139</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>139</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>139</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>139</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>140</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>140</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>140</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>140</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>141</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>141</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>141</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>141</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>142</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>142</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>142</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>142</v>
       </c>
@@ -14674,12 +14674,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" style="6" customWidth="1"/>
+    <col min="1" max="4" width="30.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>43</v>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>45</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -14749,7 +14749,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>48</v>
@@ -14757,7 +14757,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>49</v>

--- a/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
+++ b/tests/models/potable_water_treatment_plant_A/input/model_pwtp_400ML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\sira\tests\models\potable_water_treatment_plant_A\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED16707-3FDB-4A78-9B7F-5B3F719B9E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2840D3-BD42-451C-90BF-F1C6DFA4CAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="2" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="6" xr2:uid="{CEDE2889-09E0-F04D-B075-9F075F81490E}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="1" r:id="rId1"/>
@@ -481,15 +481,6 @@
     <t>damage_function</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>damage_ratio</t>
   </si>
   <si>
@@ -809,6 +800,15 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>ds_scale</t>
+  </si>
+  <si>
+    <t>ds_location</t>
+  </si>
+  <si>
+    <t>ds_shape</t>
   </si>
 </sst>
 </file>
@@ -1995,21 +1995,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C1" s="104" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C2" s="108"/>
     </row>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="4" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>43</v>
@@ -2033,16 +2033,16 @@
     </row>
     <row r="5" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="108"/>
     </row>
     <row r="6" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>42</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="8" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C8" s="108"/>
     </row>
     <row r="9" spans="1:3" s="109" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C9" s="108"/>
     </row>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B5" s="2"/>
     </row>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -2454,73 +2454,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9367EF-BD79-A044-89F7-C4AD289DA10D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -2551,31 +2551,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="G1" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="H1" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="I1" s="92" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2586,25 +2586,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D2" s="96">
         <v>0.02</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" s="98">
         <v>1</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2615,25 +2615,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" s="96">
         <v>0.04</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G3" s="98">
         <v>1</v>
       </c>
       <c r="H3" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2644,25 +2644,25 @@
         <v>27</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D4" s="96">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4" s="98">
         <v>1</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2673,25 +2673,25 @@
         <v>27</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D5" s="96">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G5" s="98">
         <v>1</v>
       </c>
       <c r="H5" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,25 +2702,25 @@
         <v>25</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D6" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G6" s="98">
         <v>1</v>
       </c>
       <c r="H6" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2731,25 +2731,25 @@
         <v>28</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G7" s="98">
         <v>1</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2760,25 +2760,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D8" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="98">
         <v>1</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2789,25 +2789,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D9" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" s="98">
         <v>1</v>
       </c>
       <c r="H9" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2818,25 +2818,25 @@
         <v>28</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D10" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E10" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G10" s="98">
         <v>1</v>
       </c>
       <c r="H10" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D11" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E11" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G11" s="98">
         <v>1</v>
       </c>
       <c r="H11" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I11" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2876,25 +2876,25 @@
         <v>28</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D12" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E12" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G12" s="98">
         <v>1</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2905,25 +2905,25 @@
         <v>28</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D13" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E13" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G13" s="98">
         <v>1</v>
       </c>
       <c r="H13" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I13" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2934,25 +2934,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D14" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E14" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G14" s="98">
         <v>1</v>
       </c>
       <c r="H14" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2963,25 +2963,25 @@
         <v>28</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D15" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E15" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G15" s="98">
         <v>1</v>
       </c>
       <c r="H15" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I15" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2992,25 +2992,25 @@
         <v>28</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D16" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E16" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G16" s="98">
         <v>1</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3021,25 +3021,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D17" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E17" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="G17" s="98">
         <v>1</v>
       </c>
       <c r="H17" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I17" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3050,25 +3050,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D18" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" s="98">
         <v>1</v>
       </c>
       <c r="H18" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I18" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3079,25 +3079,25 @@
         <v>22</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D19" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G19" s="98">
         <v>1</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3108,25 +3108,25 @@
         <v>22</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D20" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G20" s="98">
         <v>1</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3137,25 +3137,25 @@
         <v>22</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D21" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G21" s="98">
         <v>1</v>
       </c>
       <c r="H21" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3166,25 +3166,25 @@
         <v>22</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D22" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G22" s="98">
         <v>1</v>
       </c>
       <c r="H22" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I22" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3195,25 +3195,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D23" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G23" s="98">
         <v>1</v>
       </c>
       <c r="H23" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I23" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3224,25 +3224,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D24" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G24" s="98">
         <v>1</v>
       </c>
       <c r="H24" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3253,25 +3253,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D25" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G25" s="98">
         <v>1</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I25" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3282,25 +3282,25 @@
         <v>13</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D26" s="96">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G26" s="98">
         <v>1</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3311,25 +3311,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D27" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G27" s="98">
         <v>1</v>
       </c>
       <c r="H27" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I27" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3340,25 +3340,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D28" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G28" s="98">
         <v>1</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I28" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3369,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D29" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G29" s="98">
         <v>1</v>
       </c>
       <c r="H29" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I29" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3398,25 +3398,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D30" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G30" s="98">
         <v>1</v>
       </c>
       <c r="H30" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I30" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3427,25 +3427,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D31" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G31" s="98">
         <v>1</v>
       </c>
       <c r="H31" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I31" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3456,25 +3456,25 @@
         <v>3</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D32" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G32" s="98">
         <v>1</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3485,25 +3485,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D33" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G33" s="98">
         <v>1</v>
       </c>
       <c r="H33" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I33" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3514,25 +3514,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D34" s="96">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G34" s="98">
         <v>1</v>
       </c>
       <c r="H34" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I34" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3543,25 +3543,25 @@
         <v>29</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D35" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G35" s="98">
         <v>1</v>
       </c>
       <c r="H35" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I35" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D36" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G36" s="98">
         <v>1</v>
       </c>
       <c r="H36" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I36" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3601,25 +3601,25 @@
         <v>28</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D37" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G37" s="98">
         <v>1</v>
       </c>
       <c r="H37" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I37" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3630,25 +3630,25 @@
         <v>5</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D38" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E38" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G38" s="98">
         <v>1</v>
       </c>
       <c r="H38" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I38" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3659,25 +3659,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D39" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G39" s="98">
         <v>1</v>
       </c>
       <c r="H39" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I39" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3688,25 +3688,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D40" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G40" s="98">
         <v>1</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3717,25 +3717,25 @@
         <v>29</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D41" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G41" s="98">
         <v>1</v>
       </c>
       <c r="H41" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I41" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3746,25 +3746,25 @@
         <v>28</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D42" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G42" s="98">
         <v>1</v>
       </c>
       <c r="H42" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I42" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3775,25 +3775,25 @@
         <v>28</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D43" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G43" s="98">
         <v>1</v>
       </c>
       <c r="H43" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I43" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3804,25 +3804,25 @@
         <v>28</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D44" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G44" s="98">
         <v>1</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I44" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3833,25 +3833,25 @@
         <v>28</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D45" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G45" s="98">
         <v>1</v>
       </c>
       <c r="H45" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I45" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3862,25 +3862,25 @@
         <v>28</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D46" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E46" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G46" s="98">
         <v>1</v>
       </c>
       <c r="H46" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I46" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3891,25 +3891,25 @@
         <v>28</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D47" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G47" s="98">
         <v>1</v>
       </c>
       <c r="H47" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I47" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3920,25 +3920,25 @@
         <v>28</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D48" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E48" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G48" s="98">
         <v>1</v>
       </c>
       <c r="H48" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I48" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3949,25 +3949,25 @@
         <v>28</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D49" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G49" s="98">
         <v>1</v>
       </c>
       <c r="H49" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I49" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3978,25 +3978,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D50" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G50" s="98">
         <v>1</v>
       </c>
       <c r="H50" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I50" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4007,25 +4007,25 @@
         <v>3</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D51" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G51" s="98">
         <v>1</v>
       </c>
       <c r="H51" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I51" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4036,25 +4036,25 @@
         <v>3</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D52" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G52" s="98">
         <v>1</v>
       </c>
       <c r="H52" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I52" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4065,25 +4065,25 @@
         <v>3</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D53" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G53" s="98">
         <v>1</v>
       </c>
       <c r="H53" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I53" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4094,25 +4094,25 @@
         <v>3</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D54" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G54" s="98">
         <v>1</v>
       </c>
       <c r="H54" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I54" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4123,25 +4123,25 @@
         <v>3</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D55" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E55" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G55" s="98">
         <v>1</v>
       </c>
       <c r="H55" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I55" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4152,25 +4152,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D56" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G56" s="98">
         <v>1</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I56" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4181,25 +4181,25 @@
         <v>3</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D57" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G57" s="98">
         <v>1</v>
       </c>
       <c r="H57" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I57" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4210,25 +4210,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D58" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G58" s="98">
         <v>1</v>
       </c>
       <c r="H58" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I58" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4239,25 +4239,25 @@
         <v>28</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D59" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G59" s="98">
         <v>1</v>
       </c>
       <c r="H59" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I59" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4268,25 +4268,25 @@
         <v>5</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D60" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G60" s="98">
         <v>1</v>
       </c>
       <c r="H60" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I60" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4297,25 +4297,25 @@
         <v>5</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D61" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E61" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="98">
         <v>1</v>
       </c>
       <c r="H61" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I61" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4326,25 +4326,25 @@
         <v>3</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D62" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G62" s="98">
         <v>1</v>
       </c>
       <c r="H62" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I62" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D63" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G63" s="98">
         <v>1</v>
       </c>
       <c r="H63" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I63" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4384,25 +4384,25 @@
         <v>29</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D64" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G64" s="98">
         <v>1</v>
       </c>
       <c r="H64" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I64" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4413,25 +4413,25 @@
         <v>3</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D65" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G65" s="98">
         <v>1</v>
       </c>
       <c r="H65" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I65" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4442,25 +4442,25 @@
         <v>3</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D66" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G66" s="98">
         <v>1</v>
       </c>
       <c r="H66" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I66" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4471,25 +4471,25 @@
         <v>28</v>
       </c>
       <c r="C67" s="100" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D67" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G67" s="98">
         <v>1</v>
       </c>
       <c r="H67" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I67" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4500,25 +4500,25 @@
         <v>28</v>
       </c>
       <c r="C68" s="100" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D68" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E68" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G68" s="98">
         <v>1</v>
       </c>
       <c r="H68" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4529,25 +4529,25 @@
         <v>29</v>
       </c>
       <c r="C69" s="100" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D69" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E69" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G69" s="98">
         <v>1</v>
       </c>
       <c r="H69" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I69" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4558,25 +4558,25 @@
         <v>28</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D70" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E70" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G70" s="98">
         <v>1</v>
       </c>
       <c r="H70" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4587,25 +4587,25 @@
         <v>28</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D71" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E71" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G71" s="98">
         <v>1</v>
       </c>
       <c r="H71" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,25 +4616,25 @@
         <v>3</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D72" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E72" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G72" s="98">
         <v>1</v>
       </c>
       <c r="H72" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4645,25 +4645,25 @@
         <v>3</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D73" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E73" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G73" s="98">
         <v>1</v>
       </c>
       <c r="H73" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I73" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4674,25 +4674,25 @@
         <v>3</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D74" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E74" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G74" s="98">
         <v>1</v>
       </c>
       <c r="H74" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I74" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4703,25 +4703,25 @@
         <v>3</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D75" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E75" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G75" s="98">
         <v>1</v>
       </c>
       <c r="H75" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I75" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4732,25 +4732,25 @@
         <v>3</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D76" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E76" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G76" s="98">
         <v>1</v>
       </c>
       <c r="H76" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I76" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4761,25 +4761,25 @@
         <v>3</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D77" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G77" s="98">
         <v>1</v>
       </c>
       <c r="H77" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I77" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4790,25 +4790,25 @@
         <v>29</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D78" s="96">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E78" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G78" s="98">
         <v>1</v>
       </c>
       <c r="H78" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I78" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4819,25 +4819,25 @@
         <v>28</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D79" s="96">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E79" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G79" s="98">
         <v>1</v>
       </c>
       <c r="H79" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I79" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4848,25 +4848,25 @@
         <v>28</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D80" s="96">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="E80" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G80" s="98">
         <v>1</v>
       </c>
       <c r="H80" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I80" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4877,25 +4877,25 @@
         <v>5</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D81" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E81" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G81" s="98">
         <v>1</v>
       </c>
       <c r="H81" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I81" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4906,25 +4906,25 @@
         <v>5</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D82" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="E82" s="99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G82" s="98">
         <v>1</v>
       </c>
       <c r="H82" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I82" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4935,25 +4935,25 @@
         <v>10</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D83" s="101">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F83" s="69" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G83" s="98">
         <v>1</v>
       </c>
       <c r="H83" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I83" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4964,25 +4964,25 @@
         <v>10</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D84" s="101">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F84" s="69" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G84" s="98">
         <v>1</v>
       </c>
       <c r="H84" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I84" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4993,25 +4993,25 @@
         <v>30</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D85" s="96">
         <v>0</v>
       </c>
       <c r="E85" s="102" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F85" s="69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G85" s="98">
         <v>1</v>
       </c>
       <c r="H85" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I85" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="69" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5022,25 +5022,25 @@
         <v>30</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86" s="96">
         <v>0</v>
       </c>
       <c r="E86" s="102" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F86" s="69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G86" s="98">
         <v>1</v>
       </c>
       <c r="H86" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I86" s="98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5075,16 +5075,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="87" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6734,16 +6734,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6825,19 +6825,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6884,8 +6884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8373E96-6BC6-B04B-A341-C220E1DA9E3B}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -6923,43 +6923,43 @@
         <v>145</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="R1" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6973,10 +6973,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2" s="22">
         <v>0.8</v>
@@ -6994,16 +6994,16 @@
         <v>0.95</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O2" s="25">
         <v>0.2</v>
@@ -7015,7 +7015,7 @@
         <v>0.1</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7029,10 +7029,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
@@ -7050,16 +7050,16 @@
         <v>0.75</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O3" s="25">
         <v>0.5</v>
@@ -7071,7 +7071,7 @@
         <v>0.1</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7085,10 +7085,10 @@
         <v>57</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" s="35">
         <v>1.1000000000000001</v>
@@ -7106,16 +7106,16 @@
         <v>0.3</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O4" s="25">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>0.5</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7141,10 +7141,10 @@
         <v>58</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F5" s="36">
         <v>1.4</v>
@@ -7162,16 +7162,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O5" s="25">
         <v>4.3</v>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,10 +7197,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F6" s="37">
         <v>0.15</v>
@@ -7218,16 +7218,16 @@
         <v>0.95</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O6" s="39">
         <v>3</v>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7253,10 +7253,10 @@
         <v>56</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F7" s="37">
         <v>0.3</v>
@@ -7274,16 +7274,16 @@
         <v>0.75</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O7" s="42">
         <v>20</v>
@@ -7295,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7309,10 +7309,10 @@
         <v>57</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="38">
         <v>0.8</v>
@@ -7330,16 +7330,16 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O8" s="42">
         <v>60</v>
@@ -7351,7 +7351,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7365,10 +7365,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" s="38">
         <v>1.1000000000000001</v>
@@ -7386,16 +7386,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O9" s="45">
         <v>102.85714285714286</v>
@@ -7407,7 +7407,7 @@
         <v>8</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="48" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7421,10 +7421,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F10" s="22">
         <v>0.36</v>
@@ -7442,16 +7442,16 @@
         <v>0.95</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O10" s="25">
         <v>0.2</v>
@@ -7463,7 +7463,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7477,10 +7477,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F11" s="32">
         <v>0.6</v>
@@ -7498,16 +7498,16 @@
         <v>0.75</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O11" s="25">
         <v>0.5</v>
@@ -7519,7 +7519,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7533,10 +7533,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F12" s="32">
         <v>1.2</v>
@@ -7554,16 +7554,16 @@
         <v>0.3</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O12" s="25">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>0.5</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7589,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="36">
         <v>1.5</v>
@@ -7610,16 +7610,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O13" s="25">
         <v>4.3</v>
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7645,10 +7645,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F14" s="22">
         <v>0.65</v>
@@ -7666,16 +7666,16 @@
         <v>0.95</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O14" s="39">
         <v>1</v>
@@ -7687,7 +7687,7 @@
         <v>0.5</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7701,10 +7701,10 @@
         <v>56</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F15" s="32">
         <v>1</v>
@@ -7722,16 +7722,16 @@
         <v>0.75</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O15" s="42">
         <v>3</v>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7757,10 +7757,10 @@
         <v>57</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16" s="35">
         <v>1.1499999999999999</v>
@@ -7778,16 +7778,16 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O16" s="42">
         <v>15</v>
@@ -7799,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7813,10 +7813,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F17" s="36">
         <v>1.3</v>
@@ -7834,16 +7834,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O17" s="42">
         <v>30</v>
@@ -7855,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7869,10 +7869,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F18" s="49">
         <v>0.32</v>
@@ -7890,16 +7890,16 @@
         <v>0.95</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O18" s="39">
         <v>5</v>
@@ -7911,7 +7911,7 @@
         <v>0.3</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7925,10 +7925,10 @@
         <v>56</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F19" s="35">
         <v>0.55000000000000004</v>
@@ -7946,16 +7946,16 @@
         <v>0.75</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O19" s="42">
         <v>10</v>
@@ -7967,7 +7967,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7981,10 +7981,10 @@
         <v>57</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F20" s="32">
         <v>1</v>
@@ -8002,16 +8002,16 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O20" s="42">
         <v>21</v>
@@ -8023,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8037,10 +8037,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F21" s="36">
         <v>1.35</v>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O21" s="42">
         <v>42.857142857142854</v>
@@ -8079,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8093,10 +8093,10 @@
         <v>54</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F22" s="22">
         <v>0.4</v>
@@ -8114,16 +8114,16 @@
         <v>0.95</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O22" s="39">
         <v>5</v>
@@ -8135,7 +8135,7 @@
         <v>0.5</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8149,10 +8149,10 @@
         <v>56</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F23" s="35">
         <v>0.56000000000000005</v>
@@ -8170,16 +8170,16 @@
         <v>0.75</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O23" s="42">
         <v>17</v>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8205,10 +8205,10 @@
         <v>57</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F24" s="35">
         <v>0.9</v>
@@ -8226,16 +8226,16 @@
         <v>0.3</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O24" s="42">
         <v>37</v>
@@ -8247,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8261,10 +8261,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F25" s="36">
         <v>1.1000000000000001</v>
@@ -8282,16 +8282,16 @@
         <v>0</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O25" s="42">
         <v>77.142857142857139</v>
@@ -8303,7 +8303,7 @@
         <v>4</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8317,10 +8317,10 @@
         <v>54</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F26" s="49">
         <v>0.25</v>
@@ -8338,16 +8338,16 @@
         <v>0.95</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O26" s="39">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>0.2</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8373,10 +8373,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F27" s="35">
         <v>0.36</v>
@@ -8394,16 +8394,16 @@
         <v>0.75</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N27" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O27" s="42">
         <v>4</v>
@@ -8415,7 +8415,7 @@
         <v>0.5</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8429,10 +8429,10 @@
         <v>57</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F28" s="32">
         <v>0.53</v>
@@ -8450,16 +8450,16 @@
         <v>0.3</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O28" s="42">
         <v>8</v>
@@ -8471,7 +8471,7 @@
         <v>1.5</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8485,10 +8485,10 @@
         <v>58</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F29" s="54">
         <v>1</v>
@@ -8506,16 +8506,16 @@
         <v>0</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L29" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N29" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O29" s="42">
         <v>12</v>
@@ -8527,7 +8527,7 @@
         <v>3</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8541,10 +8541,10 @@
         <v>54</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="49">
         <v>0.25</v>
@@ -8562,16 +8562,16 @@
         <v>0.95</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O30" s="39">
         <v>1</v>
@@ -8583,7 +8583,7 @@
         <v>0.2</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8597,10 +8597,10 @@
         <v>56</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F31" s="35">
         <v>0.36</v>
@@ -8618,16 +8618,16 @@
         <v>0.75</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O31" s="42">
         <v>4</v>
@@ -8639,7 +8639,7 @@
         <v>0.5</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8653,10 +8653,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F32" s="32">
         <v>0.53</v>
@@ -8674,16 +8674,16 @@
         <v>0.3</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O32" s="42">
         <v>8</v>
@@ -8695,7 +8695,7 @@
         <v>1.5</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8709,10 +8709,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F33" s="54">
         <v>1</v>
@@ -8730,16 +8730,16 @@
         <v>0</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L33" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O33" s="42">
         <v>12</v>
@@ -8751,7 +8751,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8765,10 +8765,10 @@
         <v>54</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F34" s="49">
         <v>0.25</v>
@@ -8786,16 +8786,16 @@
         <v>0.95</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O34" s="39">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>0.2</v>
       </c>
       <c r="R34" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8821,10 +8821,10 @@
         <v>56</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F35" s="35">
         <v>0.36</v>
@@ -8842,16 +8842,16 @@
         <v>0.75</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N35" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O35" s="42">
         <v>4</v>
@@ -8863,7 +8863,7 @@
         <v>0.5</v>
       </c>
       <c r="R35" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8877,10 +8877,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F36" s="32">
         <v>0.53</v>
@@ -8898,16 +8898,16 @@
         <v>0.3</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O36" s="42">
         <v>8</v>
@@ -8919,7 +8919,7 @@
         <v>1.5</v>
       </c>
       <c r="R36" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8933,10 +8933,10 @@
         <v>58</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F37" s="54">
         <v>1</v>
@@ -8954,16 +8954,16 @@
         <v>0</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O37" s="42">
         <v>12</v>
@@ -8975,7 +8975,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8989,10 +8989,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F38" s="22">
         <v>0.4</v>
@@ -9010,16 +9010,16 @@
         <v>0.95</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O38" s="39">
         <v>3</v>
@@ -9031,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9045,10 +9045,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F39" s="35">
         <v>0.67</v>
@@ -9066,16 +9066,16 @@
         <v>0.75</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N39" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O39" s="42">
         <v>20</v>
@@ -9087,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="R39" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9101,10 +9101,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F40" s="35">
         <v>0.85</v>
@@ -9122,16 +9122,16 @@
         <v>0.3</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O40" s="42">
         <v>60</v>
@@ -9143,7 +9143,7 @@
         <v>4</v>
       </c>
       <c r="R40" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9157,10 +9157,10 @@
         <v>58</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F41" s="36">
         <v>1</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O41" s="42">
         <v>102.85714285714286</v>
@@ -9199,7 +9199,7 @@
         <v>8</v>
       </c>
       <c r="R41" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9213,10 +9213,10 @@
         <v>54</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F42" s="22">
         <v>0.4</v>
@@ -9234,16 +9234,16 @@
         <v>0.95</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O42" s="39">
         <v>5</v>
@@ -9255,7 +9255,7 @@
         <v>0.5</v>
       </c>
       <c r="R42" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9269,10 +9269,10 @@
         <v>56</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F43" s="32">
         <v>0.65</v>
@@ -9290,16 +9290,16 @@
         <v>0.75</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O43" s="42">
         <v>17</v>
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9325,10 +9325,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F44" s="35">
         <v>0.95</v>
@@ -9346,16 +9346,16 @@
         <v>0.3</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L44" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O44" s="42">
         <v>37</v>
@@ -9367,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="R44" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9381,10 +9381,10 @@
         <v>58</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F45" s="36">
         <v>1.18</v>
@@ -9402,16 +9402,16 @@
         <v>0</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N45" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O45" s="42">
         <v>77.142857142857139</v>
@@ -9423,7 +9423,7 @@
         <v>4</v>
       </c>
       <c r="R45" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9437,10 +9437,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F46" s="22">
         <v>0.25</v>
@@ -9458,16 +9458,16 @@
         <v>0.95</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O46" s="39">
         <v>5</v>
@@ -9479,7 +9479,7 @@
         <v>0.5</v>
       </c>
       <c r="R46" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9493,10 +9493,10 @@
         <v>56</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F47" s="32">
         <v>0.52</v>
@@ -9514,16 +9514,16 @@
         <v>0.75</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O47" s="42">
         <v>17</v>
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9549,10 +9549,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F48" s="32">
         <v>0.95</v>
@@ -9570,16 +9570,16 @@
         <v>0.3</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L48" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O48" s="42">
         <v>37</v>
@@ -9591,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="R48" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9605,10 +9605,10 @@
         <v>58</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F49" s="54">
         <v>1.64</v>
@@ -9626,16 +9626,16 @@
         <v>0</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L49" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N49" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O49" s="42">
         <v>77.142857142857139</v>
@@ -9647,7 +9647,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9661,10 +9661,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F50" s="49">
         <v>0.53</v>
@@ -9682,16 +9682,16 @@
         <v>0.95</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O50" s="39">
         <v>5</v>
@@ -9703,7 +9703,7 @@
         <v>0.5</v>
       </c>
       <c r="R50" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9717,10 +9717,10 @@
         <v>56</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F51" s="35">
         <v>0.92</v>
@@ -9738,16 +9738,16 @@
         <v>0.75</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L51" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M51" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N51" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O51" s="42">
         <v>17</v>
@@ -9759,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9773,10 +9773,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F52" s="32">
         <v>1.6</v>
@@ -9794,16 +9794,16 @@
         <v>0.3</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L52" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M52" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="42">
         <v>37</v>
@@ -9815,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="R52" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9829,10 +9829,10 @@
         <v>58</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F53" s="36">
         <v>1.8</v>
@@ -9850,16 +9850,16 @@
         <v>0</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L53" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M53" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N53" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="42">
         <v>77.142857142857139</v>
@@ -9871,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9885,10 +9885,10 @@
         <v>54</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F54" s="49">
         <v>0.6</v>
@@ -9906,16 +9906,16 @@
         <v>0.95</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O54" s="39">
         <v>5</v>
@@ -9927,7 +9927,7 @@
         <v>0.5</v>
       </c>
       <c r="R54" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9941,10 +9941,10 @@
         <v>56</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F55" s="35">
         <v>0.85</v>
@@ -9962,16 +9962,16 @@
         <v>0.75</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L55" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M55" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N55" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O55" s="42">
         <v>17</v>
@@ -9983,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="R55" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9997,10 +9997,10 @@
         <v>57</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F56" s="32">
         <v>1.25</v>
@@ -10018,16 +10018,16 @@
         <v>0.3</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L56" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N56" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O56" s="42">
         <v>37</v>
@@ -10039,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10053,10 +10053,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F57" s="36">
         <v>1.5</v>
@@ -10074,16 +10074,16 @@
         <v>0</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N57" s="61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O57" s="45">
         <v>77.142857142857139</v>
@@ -10095,7 +10095,7 @@
         <v>4</v>
       </c>
       <c r="R57" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10109,10 +10109,10 @@
         <v>54</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F58" s="22">
         <v>0.28000000000000003</v>
@@ -10130,16 +10130,16 @@
         <v>0.95</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N58" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O58" s="42">
         <v>5</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="R58" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10165,10 +10165,10 @@
         <v>56</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F59" s="32">
         <v>0.72</v>
@@ -10186,16 +10186,16 @@
         <v>0.75</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L59" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N59" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O59" s="42">
         <v>20</v>
@@ -10207,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10221,10 +10221,10 @@
         <v>57</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F60" s="32">
         <v>1.66</v>
@@ -10242,16 +10242,16 @@
         <v>0.3</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L60" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O60" s="42">
         <v>50</v>
@@ -10263,7 +10263,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10277,10 +10277,10 @@
         <v>58</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F61" s="54">
         <v>2.17</v>
@@ -10298,16 +10298,16 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M61" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N61" s="61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O61" s="45">
         <v>102.85714285714286</v>
@@ -10319,7 +10319,7 @@
         <v>8</v>
       </c>
       <c r="R61" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10333,10 +10333,10 @@
         <v>54</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F62" s="22">
         <v>0.15</v>
@@ -10354,16 +10354,16 @@
         <v>0.95</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O62" s="39">
         <v>5</v>
@@ -10375,7 +10375,7 @@
         <v>0.5</v>
       </c>
       <c r="R62" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10389,10 +10389,10 @@
         <v>56</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F63" s="32">
         <v>0.36</v>
@@ -10410,16 +10410,16 @@
         <v>0.75</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L63" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O63" s="42">
         <v>17</v>
@@ -10431,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10445,10 +10445,10 @@
         <v>57</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F64" s="32">
         <v>0.72</v>
@@ -10466,16 +10466,16 @@
         <v>0.3</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L64" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N64" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O64" s="42">
         <v>37</v>
@@ -10487,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="R64" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10501,10 +10501,10 @@
         <v>58</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F65" s="54">
         <v>1.5</v>
@@ -10522,16 +10522,16 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L65" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M65" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N65" s="61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O65" s="45">
         <v>77.142857142857139</v>
@@ -10543,7 +10543,7 @@
         <v>4</v>
       </c>
       <c r="R65" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10557,10 +10557,10 @@
         <v>54</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F66" s="22">
         <v>10</v>
@@ -10578,16 +10578,16 @@
         <v>1</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L66" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N66" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O66" s="39">
         <v>5</v>
@@ -10599,7 +10599,7 @@
         <v>0.5</v>
       </c>
       <c r="R66" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10613,10 +10613,10 @@
         <v>56</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F67" s="32">
         <v>10</v>
@@ -10634,16 +10634,16 @@
         <v>1</v>
       </c>
       <c r="K67" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L67" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N67" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O67" s="42">
         <v>17</v>
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="R67" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10669,10 +10669,10 @@
         <v>57</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F68" s="32">
         <v>10</v>
@@ -10690,16 +10690,16 @@
         <v>1</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L68" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O68" s="42">
         <v>37</v>
@@ -10711,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="R68" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="29" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10725,10 +10725,10 @@
         <v>58</v>
       </c>
       <c r="D69" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F69" s="54">
         <v>10</v>
@@ -10746,16 +10746,16 @@
         <v>1</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M69" s="61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N69" s="61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O69" s="45">
         <v>77.142857142857139</v>
@@ -10767,7 +10767,7 @@
         <v>4</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
